--- a/medicine/Psychotrope/Brauerei_Carl_Betz/Brauerei_Carl_Betz.xlsx
+++ b/medicine/Psychotrope/Brauerei_Carl_Betz/Brauerei_Carl_Betz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brauerei Carl Betz est une brasserie à Celle.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1893, le marchand Carl Betz, originaire de la Forêt-Noire, enregistre une entreprise pour la production de Farbebier à Celle.
 Avant le début de la Première Guerre mondiale, Carl Betz brasse de la Malzbier et produit de l'eau minérale. La production d'eau n'est pas reprise après la guerre. En 1930, Carl Betz donne à ses fils Albert et Walter la nouvelle brasserie Carl Betz OHG. Après la mort de Carl Betz en 1936, ses fils continuent la compagnie. En  avril 1966, Dieter et Karl-Friedrich Betz rejoignent l'OHG. Après quarante ans, la quatrième génération reprend l'entreprise. En avril 2006, les anciens actionnaires lui remettent la gestion de la brasserie : Dieter Betz à sa fille Frauke Betz (diplôme en économie) et Karl-Friedrich Betz à son fils Stephan Betz (maître brasseur).
@@ -544,7 +558,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Celler Urtrüb
 Celler Pilsener
